--- a/media/рез.xlsx
+++ b/media/рез.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JOB\DKS python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JOB\DKS_python\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="28800" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -898,14 +898,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:AT32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE46" sqref="AE46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="4:46" x14ac:dyDescent="0.25">
@@ -4202,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -6856,7 +6858,7 @@
         <v>4.5246070833444598</v>
       </c>
       <c r="S21" s="17">
-        <f>U2-R21</f>
+        <f t="shared" ref="S21:S38" si="2">U2-R21</f>
         <v>0.13243581436710006</v>
       </c>
       <c r="AG21" s="17">
@@ -6875,7 +6877,7 @@
         <v>4.5465246497513494</v>
       </c>
       <c r="S22" s="17">
-        <f>U3-R22</f>
+        <f t="shared" si="2"/>
         <v>3.8816882045030532E-2</v>
       </c>
       <c r="AG22" s="17">
@@ -6888,11 +6890,11 @@
         <v>4.5081614250536601</v>
       </c>
       <c r="S23" s="17">
-        <f>U4-R23</f>
+        <f t="shared" si="2"/>
         <v>0.19938068645616003</v>
       </c>
       <c r="AG23" s="17">
-        <f t="shared" ref="AG23:AG37" si="2">AG4-U4</f>
+        <f t="shared" ref="AG23:AG37" si="3">AG4-U4</f>
         <v>7.2457888490180089E-2</v>
       </c>
     </row>
@@ -6901,11 +6903,11 @@
         <v>4.6414521128488797</v>
       </c>
       <c r="S24" s="17">
-        <f>U5-R24</f>
+        <f t="shared" si="2"/>
         <v>0.39983104674315051</v>
       </c>
       <c r="AG24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10871684040797014</v>
       </c>
     </row>
@@ -6914,11 +6916,11 @@
         <v>4.6379463543135602</v>
       </c>
       <c r="S25" s="17">
-        <f>U6-R25</f>
+        <f t="shared" si="2"/>
         <v>0.53201361766894983</v>
       </c>
       <c r="AG25" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0040028017489995E-2</v>
       </c>
       <c r="AK25" s="1"/>
@@ -6933,11 +6935,11 @@
         <v>4.6349282442071198</v>
       </c>
       <c r="S26" s="17">
-        <f>U7-R26</f>
+        <f t="shared" si="2"/>
         <v>0.50723619534212006</v>
       </c>
       <c r="AG26" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.78355604507599E-2</v>
       </c>
       <c r="AK26" s="1"/>
@@ -6952,11 +6954,11 @@
         <v>4.6348790218097902</v>
       </c>
       <c r="S27" s="17">
-        <f>U8-R27</f>
+        <f t="shared" si="2"/>
         <v>0.74009266478180979</v>
       </c>
       <c r="AG27" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5028313408400429E-2</v>
       </c>
       <c r="AK27" s="1"/>
@@ -6971,11 +6973,11 @@
         <v>4.6392131239585499</v>
       </c>
       <c r="S28" s="17">
-        <f>U9-R28</f>
+        <f t="shared" si="2"/>
         <v>0.59920642063936036</v>
       </c>
       <c r="AG28" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1580455402090024E-2</v>
       </c>
       <c r="AK28" s="2"/>
@@ -6990,7 +6992,7 @@
         <v>4.6471301198988204</v>
       </c>
       <c r="S29" s="17">
-        <f>U10-R29</f>
+        <f t="shared" si="2"/>
         <v>0.30479647276475941</v>
       </c>
       <c r="AG29" s="17">
@@ -7009,11 +7011,11 @@
         <v>4.5126533817738697</v>
       </c>
       <c r="S30" s="17">
-        <f>U11-R30</f>
+        <f t="shared" si="2"/>
         <v>7.7553078450380397E-2</v>
       </c>
       <c r="AG30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9793539775749842E-2</v>
       </c>
       <c r="AK30" s="2"/>
@@ -7028,11 +7030,11 @@
         <v>4.5504518893100805</v>
       </c>
       <c r="S31" s="17">
-        <f>U12-R31</f>
+        <f t="shared" si="2"/>
         <v>0.25141380445415962</v>
       </c>
       <c r="AG31" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11813430623575982</v>
       </c>
       <c r="AK31" s="1"/>
@@ -7047,11 +7049,11 @@
         <v>4.5463467657651204</v>
       </c>
       <c r="S32" s="17">
-        <f>U13-R32</f>
+        <f t="shared" si="2"/>
         <v>0.2587087369750698</v>
       </c>
       <c r="AG32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4944497259810134E-2</v>
       </c>
       <c r="AK32" s="2"/>
@@ -7066,11 +7068,11 @@
         <v>4.5247936187495599</v>
       </c>
       <c r="S33" s="17">
-        <f>U14-R33</f>
+        <f t="shared" si="2"/>
         <v>-3.5150993227262006E-10</v>
       </c>
       <c r="AG33" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5206381601950092E-2</v>
       </c>
       <c r="AK33" s="1"/>
@@ -7085,11 +7087,11 @@
         <v>4.6481616512949504</v>
       </c>
       <c r="S34" s="17">
-        <f>U15-R34</f>
+        <f t="shared" si="2"/>
         <v>0.57129635452601946</v>
       </c>
       <c r="AG34" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0541994179029928E-2</v>
       </c>
       <c r="AK34" s="1"/>
@@ -7104,7 +7106,7 @@
         <v>4.6435676688644598</v>
       </c>
       <c r="S35" s="17">
-        <f>U16-R35</f>
+        <f t="shared" si="2"/>
         <v>0.22873693659527028</v>
       </c>
       <c r="AG35" s="17">
@@ -7123,11 +7125,11 @@
         <v>4.7192230224546199</v>
       </c>
       <c r="S36" s="17">
-        <f>U17-R36</f>
+        <f t="shared" si="2"/>
         <v>-2.2599671023471046E-7</v>
       </c>
       <c r="AG36" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9222796457909475E-2</v>
       </c>
       <c r="AK36" s="1"/>
@@ -7142,11 +7144,11 @@
         <v>4.7345555882452999</v>
       </c>
       <c r="S37" s="17">
-        <f>U18-R37</f>
+        <f t="shared" si="2"/>
         <v>-8.8304101808489577E-9</v>
       </c>
       <c r="AG37" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4555579414889941E-2</v>
       </c>
       <c r="AK37" s="1"/>
@@ -7161,7 +7163,7 @@
         <v>4.80214634513157</v>
       </c>
       <c r="S38" s="17">
-        <f>U19-R38</f>
+        <f t="shared" si="2"/>
         <v>-9.6421061664289986E-2</v>
       </c>
       <c r="AG38" s="17">
